--- a/AOC_2024/day04_Ceres_Search/griglia.xlsx
+++ b/AOC_2024/day04_Ceres_Search/griglia.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefano.leonardi\Documents\Dati_Personali\adventOfCode\AOC_2024\day04_Ceres_Search\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE2A3D33-04E4-448B-9127-3D130AEF7034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5542BEE7-F75F-4179-8CC4-BB913DD2112A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13905" yWindow="4185" windowWidth="11895" windowHeight="11295" xr2:uid="{B6268EBA-A5AD-4EAD-989E-73D80B5B76D9}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{B6268EBA-A5AD-4EAD-989E-73D80B5B76D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="7">
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="18">
   <si>
     <t>11 1</t>
   </si>
@@ -57,13 +51,52 @@
   </si>
   <si>
     <t>11 2</t>
+  </si>
+  <si>
+    <t>12-1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>12-2</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>12-11</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12-10</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,16 +104,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Source Code Pro"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -88,13 +164,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -431,20 +632,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E5F51E0-F2A7-44FA-9AF4-C67EA8A8CF81}">
-  <dimension ref="A1:O13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="13" width="3.42578125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="6.42578125" style="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="14" max="14" width="6.42578125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" style="9"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -453,7 +655,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1">
-        <f t="shared" ref="D1:N1" si="0">C1+1</f>
+        <f t="shared" ref="D1:M1" si="0">C1+1</f>
         <v>2</v>
       </c>
       <c r="E1" s="1">
@@ -497,62 +699,105 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <f>A2+1</f>
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="6"/>
+      <c r="N3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>6</v>
+      <c r="O3" s="9" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A18" si="1">A3+1</f>
+        <f t="shared" ref="A4:A13" si="1">A3+1</f>
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="6"/>
+      <c r="N4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>4</v>
+      <c r="O4" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -560,11 +805,40 @@
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>5</v>
+      <c r="B5" s="5"/>
+      <c r="C5" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="6"/>
+      <c r="N5" s="9" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -572,17 +846,81 @@
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="6"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>0</v>
+      <c r="B7" s="5"/>
+      <c r="C7" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -590,8 +928,43 @@
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>0</v>
+      <c r="B8" s="5"/>
+      <c r="C8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="9" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -599,8 +972,40 @@
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>0</v>
+      <c r="B9" s="5"/>
+      <c r="C9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="9" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -608,8 +1013,43 @@
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>0</v>
+      <c r="B10" s="5"/>
+      <c r="C10" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -617,36 +1057,126 @@
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>0</v>
-      </c>
+      <c r="B11" s="5"/>
+      <c r="C11" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L11" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B12" s="5"/>
+      <c r="C12" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="6"/>
+      <c r="N12" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>1</v>
+      <c r="B13" s="10"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N14" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N15" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
